--- a/src/Crop_Model.xlsx
+++ b/src/Crop_Model.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Crop_Model_ASRS_Relocation_Lower" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Crop_Model_ASRS_Relocation" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Crop_Model_ASRS_Relocation_Estimate" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Crop_Model_ASRS_Relocation_Upper" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Crop_Model_ASRS_No_Relocation" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Crop_Model_2005" sheetId="6" state="visible" r:id="rId7"/>
@@ -5232,8 +5232,8 @@
   </sheetPr>
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5338,7 +5338,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="4" t="n">
-        <f aca="false">1-Crop_Model_ASRS_Relocation!I13/Crop_Model_2005!E13</f>
+        <f aca="false">1-Crop_Model_ASRS_Relocation_Estimate!I13/Crop_Model_2005!E13</f>
         <v>0.807779341979336</v>
       </c>
       <c r="C4" s="5" t="n">
@@ -5346,11 +5346,11 @@
         <v>0.192220658020664</v>
       </c>
       <c r="D4" s="5" t="n">
-        <f aca="false">Crop_Model_ASRS_Relocation!J13/Crop_Model_2005!F13</f>
+        <f aca="false">Crop_Model_ASRS_Relocation_Estimate!J13/Crop_Model_2005!F13</f>
         <v>0.379957718008954</v>
       </c>
       <c r="E4" s="5" t="n">
-        <f aca="false">Crop_Model_ASRS_Relocation!K13/Crop_Model_2005!G13</f>
+        <f aca="false">Crop_Model_ASRS_Relocation_Estimate!K13/Crop_Model_2005!G13</f>
         <v>0.204127502326768</v>
       </c>
       <c r="F4" s="7" t="n">
@@ -5480,8 +5480,8 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M8" activeCellId="0" sqref="M8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6140,8 +6140,8 @@
   </sheetPr>
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
